--- a/Final_list.xlsx
+++ b/Final_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muditn99\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="103">
   <si>
     <t>Servers</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>SRVHOUWT8185</t>
+  </si>
+  <si>
+    <t>test changes</t>
   </si>
 </sst>
 </file>
@@ -444,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -459,6 +462,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -753,7 +757,7 @@
   <dimension ref="A2:C83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,6 +793,9 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
+      <c r="C5" s="10" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
